--- a/datamining/final_data/sum1976_nltk.xlsx
+++ b/datamining/final_data/sum1976_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MC2"/>
+  <dimension ref="A1:KR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,1685 +452,1500 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>world</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>myopia</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>view</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>myopia</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>individualization</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>individualization</t>
+          <t>.2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>book</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>.2</t>
+          <t>group</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>processes</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>review</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>stein</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>processes</t>
+          <t>stimulating</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>art</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>stein</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>stimulating</t>
+          <t>czikszentmihalyi</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>finding</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>getzels</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>czikszentmihalyi</t>
+          <t>jw</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>finding</t>
+          <t>longitudinal-study</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>getzels</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>vision</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>jw</t>
+          <t>among</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal-study</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>clues</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>elephant</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>biographical</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>vision</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>information</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>artistic</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>clues</t>
+          <t>using</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>biographical</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>ncsa</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>north-carolinas</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>venture</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>pennsylvania-governors-school-for-arts</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>artistically</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>narrative</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>ncsa</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>north-carolinas</t>
+          <t>program</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>studio</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>venture</t>
+          <t>towards</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>pennsylvania-governors-school-for-arts</t>
+          <t>united-states</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>artistically</t>
+          <t>ussr</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>narrative</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>esea</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>exemplary</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>fostered</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>innovation</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>studio</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>title</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>disturbance</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>towards</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>united-states</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>ussr</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>esea</t>
+          <t>judgment</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>exemplary</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>fostered</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>has</t>
+          <t>future</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>innovation</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>integrating</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>language</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>disturbance</t>
+          <t>association</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>board</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>national</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>no.2</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>judgment</t>
+          <t>accelerative</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>extremely</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>mathematically</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>integrating</t>
+          <t>smpys</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>well</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>youths</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>stereotyping</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>calculus</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>enjoy</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>es</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>no.2</t>
+          <t>pine</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>accelerative</t>
+          <t>accelerating</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>extremely</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>mathematically</t>
+          <t>career-education</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>pre-adolescents</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>smpys</t>
+          <t>college</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>facilitation</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>youths</t>
+          <t>background</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>stereotyping</t>
+          <t>child</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>calculus</t>
+          <t>history</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>enjoy</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>pine</t>
+          <t>components</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>accelerating</t>
+          <t>physical</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>sciences</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>career</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>career-education</t>
+          <t>life</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>pre-adolescents</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>termans</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>courses</t>
+          <t>women</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>facilitation</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>promoting</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>rationale</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>smpy</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>years</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>physical</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>sciences</t>
+          <t>sex-differences</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>governors</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>north-carolina</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>school</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>termans</t>
+          <t>california</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>discovery</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>statewide</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>during</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>its</t>
+          <t>format</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>promoting</t>
+          <t>independent</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>rationale</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>smpy</t>
+          <t>project</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>providing</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>gifted-child-society</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>new-jersey</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>saturday</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>sex-differences</t>
+          <t>workshop</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>governors</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>north-carolina</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>california</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>personality-correlates</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>discovery</t>
+          <t>century</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>family</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>statewide</t>
+          <t>half</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>later</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>musically</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>nearly</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>independent</t>
+          <t>computing</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>14</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>providing</t>
+          <t>bachelors</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child-society</t>
+          <t>degree</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>new-jersey</t>
+          <t>mk</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>saturday</t>
+          <t>wolf</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>workshop</t>
+          <t>freshman</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>new</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>year</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>defensible</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>personality-correlates</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>model</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>triad</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>allowed</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>choosing</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>musically</t>
+          <t>consistant</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>nearly</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>computing</t>
+          <t>desire</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>freedom</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>bachelors</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>degree</t>
+          <t>no.1</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>mk</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>wolf</t>
+          <t>preferred</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>freshman</t>
+          <t>pursue</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>style</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>defensible</t>
+          <t>time</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>topics</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>whatever</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>college-student</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>triad</t>
+          <t>female</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>allowed</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>choosing</t>
+          <t>ramifications</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>sex-role</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>consistant</t>
+          <t>stereotypes</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>depth</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>desire</t>
+          <t>major</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>extent</t>
+          <t>research</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>freedom</t>
+          <t>development</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>majority</t>
+          <t>exploratory-study</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>games</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>no.1</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>young-children</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>pursue</t>
+          <t>nationwide</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>parent-perspective</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>dp</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>topics</t>
+          <t>keating</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>whatever</t>
+          <t>burt</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>college-student</t>
+          <t>sc</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>newland</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>socioeducational</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>ramifications</t>
+          <t>te</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>sex-role</t>
+          <t>biography</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>stereotypes</t>
+          <t>hollingworth</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>directions</t>
+          <t>ls</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>seagoes</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>braun</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>youre</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>aha</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>exploratory-study</t>
+          <t>puzzle</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>games</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>worthy</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>young-children</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>fun</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>nationwide</t>
+          <t>karlin</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>parent-perspective</t>
+          <t>mail</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>dp</t>
+          <t>nothing</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>shall</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>keating</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>burt</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>sc</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>newland</t>
+          <t>recognition</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>socioeducational</t>
+          <t>student</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>taught</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>hollingworth</t>
+          <t>ethic</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>ls</t>
+          <t>work</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>seagoes</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>happened</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>braun</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>correlates</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>imagery</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>modality</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>youre</t>
+          <t>original</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>aha</t>
+          <t>sense</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>puzzle</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>figural</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>worthy</t>
+          <t>nominations</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>current</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>search</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>karlin</t>
+          <t>annotated-bibliography</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>mail</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>nothing</t>
+          <t>alive</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>shall</t>
+          <t>come</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>ia</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>careers</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>taylor</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>recognition</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>vernon</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>krippner</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>siren</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>song</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>eberle</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>education</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>ethic</t>
+          <t>guidebook</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>hall</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>action</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>happened</t>
+          <t>absolutely</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>onion</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>refuse</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>poetry</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>correlates</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>imagery</t>
+          <t>compendium</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>modality</t>
+          <t>encouraging</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>techniques</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>brilliant</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>case</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>figural</t>
+          <t>extreme</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>nominations</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>response</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>factorial</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>study</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>annotated-bibliography</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>prophecy</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>discovering</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>ia</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>values</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>taylor</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>pe</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>vernon</t>
-        </is>
-      </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>krippner</t>
-        </is>
-      </c>
-      <c r="KU1" s="1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="KV1" s="1" t="inlineStr">
-        <is>
-          <t>siren</t>
-        </is>
-      </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>song</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>eberle</t>
-        </is>
-      </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>guidebook</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
-        <is>
-          <t>hall</t>
-        </is>
-      </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="LC1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="LD1" s="1" t="inlineStr">
-        <is>
-          <t>absolutely</t>
-        </is>
-      </c>
-      <c r="LE1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="LF1" s="1" t="inlineStr">
-        <is>
-          <t>onion</t>
-        </is>
-      </c>
-      <c r="LG1" s="1" t="inlineStr">
-        <is>
-          <t>refuse</t>
-        </is>
-      </c>
-      <c r="LH1" s="1" t="inlineStr">
-        <is>
-          <t>poetry</t>
-        </is>
-      </c>
-      <c r="LI1" s="1" t="inlineStr">
-        <is>
-          <t>everyone</t>
-        </is>
-      </c>
-      <c r="LJ1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="LK1" s="1" t="inlineStr">
-        <is>
-          <t>compendium</t>
-        </is>
-      </c>
-      <c r="LL1" s="1" t="inlineStr">
-        <is>
-          <t>encouraging</t>
-        </is>
-      </c>
-      <c r="LM1" s="1" t="inlineStr">
-        <is>
-          <t>techniques</t>
-        </is>
-      </c>
-      <c r="LN1" s="1" t="inlineStr">
-        <is>
-          <t>brilliant</t>
-        </is>
-      </c>
-      <c r="LO1" s="1" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>extreme</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>challenge</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>usa</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>factorial</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>prophecy</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>discovering</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>strategy</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>learners</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>mentally</t>
         </is>
@@ -2144,52 +1959,52 @@
         <v>1976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="D2" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="E2" t="n">
-        <v>1.09</v>
+        <v>0.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53</v>
+        <v>1.42</v>
       </c>
       <c r="G2" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>1.11</v>
+        <v>4.21</v>
       </c>
       <c r="I2" t="n">
-        <v>1.11</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>3.43</v>
+        <v>1.57</v>
       </c>
       <c r="K2" t="n">
-        <v>3.97</v>
+        <v>1.78</v>
       </c>
       <c r="L2" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.56</v>
+        <v>2.850000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1.76</v>
+        <v>2.7</v>
       </c>
       <c r="O2" t="n">
         <v>0.39</v>
       </c>
       <c r="P2" t="n">
-        <v>2.59</v>
+        <v>0.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.59</v>
+        <v>0.39</v>
       </c>
       <c r="R2" t="n">
-        <v>0.39</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>0.39</v>
@@ -2198,697 +2013,697 @@
         <v>0.39</v>
       </c>
       <c r="U2" t="n">
-        <v>2.51</v>
+        <v>1.26</v>
       </c>
       <c r="V2" t="n">
-        <v>0.39</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="X2" t="n">
-        <v>1.17</v>
+        <v>0.35</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.34</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.910000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.65</v>
+        <v>1.07</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.34</v>
+        <v>0.76</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.74</v>
+        <v>0.46</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.34</v>
+        <v>0.73</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.78</v>
+        <v>2.7</v>
       </c>
       <c r="AO2" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.43</v>
+        <v>2.12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR2" t="n">
         <v>0.43</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.73</v>
+        <v>0.43</v>
       </c>
       <c r="AT2" t="n">
         <v>0.43</v>
       </c>
       <c r="AU2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CA2" t="n">
         <v>0.59</v>
       </c>
-      <c r="AV2" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.690000000000001</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="CB2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DR2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="DS2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="DT2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="DU2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="DV2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="DW2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="DX2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1976</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="GX2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BK2" t="n">
+      <c r="GY2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="HN2" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="HO2" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BN2" t="n">
+      <c r="HP2" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BT2" t="n">
+      <c r="HQ2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="IG2" t="n">
         <v>0.63</v>
       </c>
-      <c r="BU2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="CH2" t="n">
+      <c r="IH2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="II2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="IM2" t="n">
         <v>0.7</v>
       </c>
-      <c r="CI2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="CK2" t="n">
+      <c r="IN2" t="n">
         <v>0.7</v>
       </c>
-      <c r="CL2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.9100000000000001</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.9099999999999999</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1976</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.9200000000000002</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IG2" t="n">
+      <c r="IO2" t="n">
         <v>0.58</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="IP2" t="n">
         <v>0.58</v>
       </c>
-      <c r="II2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>0.45</v>
-      </c>
       <c r="IQ2" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="IR2" t="n">
         <v>0.41</v>
@@ -2903,261 +2718,150 @@
         <v>0.41</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.8600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.46</v>
+        <v>1.25</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="JJ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="KF2" t="n">
         <v>0.48</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="KG2" t="n">
         <v>0.48</v>
       </c>
-      <c r="JL2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="JN2" t="n">
+      <c r="KH2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="KI2" t="n">
         <v>0.37</v>
       </c>
-      <c r="JO2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.51</v>
-      </c>
       <c r="KJ2" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="KN2" t="n">
-        <v>1.19</v>
+        <v>0.5</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="MC2" t="n">
         <v>0.55</v>
       </c>
     </row>
